--- a/figure/lm.xlsx
+++ b/figure/lm.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="53">
   <si>
     <t xml:space="preserve">Label</t>
   </si>
@@ -84,6 +84,7 @@
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK SC"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">竹 </t>
     </r>
@@ -96,50 +97,6 @@
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">0.540559</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val=""/>
-        <family val="1"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">使 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color rgb="FF000000"/>
-        <rFont val="等线"/>
-        <family val="1"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">0.389627 </t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val=""/>
-        <family val="1"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">谢 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color rgb="FF000000"/>
-        <rFont val="等线"/>
-        <family val="1"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">0.816225</t>
     </r>
   </si>
   <si>
@@ -150,61 +107,17 @@
         <rFont val="Noto Sans CJK SC"/>
         <family val="2"/>
       </rPr>
-      <t xml:space="preserve">逐  </t>
+      <t xml:space="preserve">使 </t>
     </r>
     <r>
       <rPr>
         <sz val="14"/>
         <color rgb="FF000000"/>
         <rFont val="等线"/>
-        <family val="0"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">0.190712</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val=""/>
-        <family val="1"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">事 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color rgb="FF000000"/>
-        <rFont val="等线"/>
-        <family val="1"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">0.367775</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val=""/>
-        <family val="1"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">械 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color rgb="FF000000"/>
-        <rFont val="等线"/>
-        <family val="1"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">0.154927 </t>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">0.389627 </t>
     </r>
   </si>
   <si>
@@ -215,61 +128,17 @@
         <rFont val="Noto Sans CJK SC"/>
         <family val="2"/>
       </rPr>
-      <t xml:space="preserve">足 </t>
+      <t xml:space="preserve">谢 </t>
     </r>
     <r>
       <rPr>
         <sz val="14"/>
         <color rgb="FF000000"/>
         <rFont val="等线"/>
-        <family val="0"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">0.0758065</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val=""/>
-        <family val="1"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">石 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color rgb="FF000000"/>
-        <rFont val="等线"/>
-        <family val="1"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">0.137619 </t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val=""/>
-        <family val="1"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">卸 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color rgb="FF000000"/>
-        <rFont val="等线"/>
-        <family val="1"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">0.0138205 </t>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">0.816225</t>
     </r>
   </si>
   <si>
@@ -279,8 +148,9 @@
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK SC"/>
         <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">祖 </t>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">逐  </t>
     </r>
     <r>
       <rPr>
@@ -290,29 +160,7 @@
         <family val="0"/>
         <charset val="134"/>
       </rPr>
-      <t xml:space="preserve">0.0600022</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val=""/>
-        <family val="1"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">始 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color rgb="FF000000"/>
-        <rFont val="等线"/>
-        <family val="1"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">0.0884791 </t>
+      <t xml:space="preserve">0.190712</t>
     </r>
   </si>
   <si>
@@ -323,6 +171,156 @@
         <rFont val="Noto Sans CJK SC"/>
         <family val="2"/>
       </rPr>
+      <t xml:space="preserve">事 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="等线"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">0.367775</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Noto Sans CJK SC"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">械 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="等线"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">0.154927 </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Noto Sans CJK SC"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">足 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="等线"/>
+        <family val="0"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">0.0758065</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Noto Sans CJK SC"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">石 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="等线"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">0.137619 </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Noto Sans CJK SC"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">卸 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="等线"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">0.0138205 </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Noto Sans CJK SC"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">祖 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="等线"/>
+        <family val="0"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">0.0600022</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Noto Sans CJK SC"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">始 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="等线"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">0.0884791 </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Noto Sans CJK SC"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
       <t xml:space="preserve">烛 </t>
     </r>
     <r>
@@ -337,22 +335,596 @@
     </r>
   </si>
   <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val=""/>
+        <family val="1"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">那 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="等线"/>
+        <family val="0"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">0.971126    203</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val=""/>
+        <family val="1"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">年 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="等线"/>
+        <family val="0"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">0.999803    208</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val=""/>
+        <family val="1"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">冬 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="等线"/>
+        <family val="0"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">0.999869    213</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val=""/>
+        <family val="1"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">天 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="等线"/>
+        <family val="0"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">0.997939    219</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val=""/>
+        <family val="1"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">竹 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="等线"/>
+        <family val="0"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">0.540559    </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val=""/>
+        <family val="1"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">逐 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="等线"/>
+        <family val="0"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">0.190712    </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val=""/>
+        <family val="1"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">足 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="等线"/>
+        <family val="0"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">0.0758065    </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val=""/>
+        <family val="1"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">祖 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="等线"/>
+        <family val="0"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">0.0600022    </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val=""/>
+        <family val="1"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">烛 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="等线"/>
+        <family val="0"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">0.0427166    </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val=""/>
+        <family val="1"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">族 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="等线"/>
+        <family val="0"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">0.0418671    235</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val=""/>
+        <family val="1"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">母 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="等线"/>
+        <family val="0"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">0.981568    241</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val=""/>
+        <family val="1"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">死 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="等线"/>
+        <family val="0"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">0.999804    246</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val=""/>
+        <family val="1"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">了 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="等线"/>
+        <family val="0"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">0.998156    251</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val=""/>
+        <family val="1"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">父 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="等线"/>
+        <family val="0"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">0.947184    263</t>
+    </r>
+  </si>
+  <si>
     <t xml:space="preserve">time(s)</t>
   </si>
   <si>
     <t xml:space="preserve">score</t>
   </si>
   <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val=""/>
+        <family val="1"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">亲 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="等线"/>
+        <family val="0"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">0.997678    267</t>
+    </r>
+  </si>
+  <si>
     <t xml:space="preserve">ngram</t>
   </si>
   <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val=""/>
+        <family val="1"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">的 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="等线"/>
+        <family val="0"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">0.999682    272</t>
+    </r>
+  </si>
+  <si>
     <t xml:space="preserve">bert</t>
   </si>
   <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val=""/>
+        <family val="1"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">差 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="等线"/>
+        <family val="0"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">0.999503    276</t>
+    </r>
+  </si>
+  <si>
     <t xml:space="preserve">测试序列</t>
   </si>
   <si>
     <t xml:space="preserve">那年冬天祖母死了父亲的也差事差也交卸了</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val=""/>
+        <family val="1"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">使 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="等线"/>
+        <family val="0"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">0.389627    </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val=""/>
+        <family val="1"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">事 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="等线"/>
+        <family val="0"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">0.367775    </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val=""/>
+        <family val="1"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">石 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="等线"/>
+        <family val="0"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">0.137619    </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val=""/>
+        <family val="1"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">始 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="等线"/>
+        <family val="0"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">0.0884791    281</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val=""/>
+        <family val="1"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">也 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="等线"/>
+        <family val="0"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">0.999889    288</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val=""/>
+        <family val="1"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">交 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="等线"/>
+        <family val="0"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">0.943193    292</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val=""/>
+        <family val="1"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">谢 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="等线"/>
+        <family val="0"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">0.816225    </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val=""/>
+        <family val="1"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">械 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="等线"/>
+        <family val="0"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">0.154927    </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val=""/>
+        <family val="1"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">卸 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="等线"/>
+        <family val="0"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">0.0138205    298</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val=""/>
+        <family val="1"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">了 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="等线"/>
+        <family val="0"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">0.999108    302</t>
+    </r>
   </si>
 </sst>
 </file>
@@ -363,7 +935,7 @@
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="0.00E+00"/>
   </numFmts>
-  <fonts count="10">
+  <fonts count="11">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -405,6 +977,20 @@
       <color rgb="FF000000"/>
       <name val="Noto Sans CJK SC"/>
       <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Noto Sans CJK SC"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color rgb="FF000000"/>
+      <name val="等线"/>
+      <family val="1"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
@@ -414,17 +1000,10 @@
       <charset val="1"/>
     </font>
     <font>
-      <sz val="14"/>
-      <color rgb="FF000000"/>
-      <name val="等线"/>
-      <family val="1"/>
-      <charset val="134"/>
-    </font>
-    <font>
       <sz val="12"/>
       <color rgb="FF111111"/>
-      <name val="DejaVu Sans Mono"/>
-      <family val="3"/>
+      <name val="Noto Sans CJK SC"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -497,7 +1076,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="28">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -538,10 +1117,6 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -563,10 +1138,6 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -575,10 +1146,6 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -606,6 +1173,10 @@
       <alignment horizontal="justify" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="justify" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -614,7 +1185,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -701,7 +1272,7 @@
       <selection pane="topLeft" activeCell="F14" activeCellId="0" sqref="F14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.63671875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.64453125" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="8.64"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="2" style="1" width="34.13"/>
@@ -742,7 +1313,7 @@
       <c r="I2" s="8"/>
       <c r="J2" s="9"/>
       <c r="K2" s="3"/>
-      <c r="L2" s="10"/>
+      <c r="L2" s="2"/>
     </row>
     <row r="3" customFormat="false" ht="22.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="5"/>
@@ -753,10 +1324,10 @@
       <c r="F3" s="7"/>
       <c r="G3" s="6"/>
       <c r="H3" s="6"/>
-      <c r="I3" s="11"/>
-      <c r="J3" s="12"/>
+      <c r="I3" s="10"/>
+      <c r="J3" s="11"/>
       <c r="K3" s="3"/>
-      <c r="L3" s="10"/>
+      <c r="L3" s="2"/>
     </row>
     <row r="4" customFormat="false" ht="22.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="5"/>
@@ -767,10 +1338,10 @@
       <c r="F4" s="7"/>
       <c r="G4" s="6"/>
       <c r="H4" s="6"/>
-      <c r="I4" s="11"/>
-      <c r="J4" s="12"/>
+      <c r="I4" s="10"/>
+      <c r="J4" s="11"/>
       <c r="K4" s="3"/>
-      <c r="L4" s="10"/>
+      <c r="L4" s="2"/>
     </row>
     <row r="5" customFormat="false" ht="22.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="5"/>
@@ -781,10 +1352,10 @@
       <c r="F5" s="7"/>
       <c r="G5" s="6"/>
       <c r="H5" s="6"/>
-      <c r="I5" s="11"/>
-      <c r="J5" s="12"/>
+      <c r="I5" s="10"/>
+      <c r="J5" s="11"/>
       <c r="K5" s="3"/>
-      <c r="L5" s="10"/>
+      <c r="L5" s="2"/>
     </row>
     <row r="6" customFormat="false" ht="22.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="5"/>
@@ -795,10 +1366,10 @@
       <c r="F6" s="7"/>
       <c r="G6" s="6"/>
       <c r="H6" s="6"/>
-      <c r="I6" s="11"/>
-      <c r="J6" s="12"/>
+      <c r="I6" s="10"/>
+      <c r="J6" s="11"/>
       <c r="K6" s="3"/>
-      <c r="L6" s="10"/>
+      <c r="L6" s="2"/>
     </row>
     <row r="7" customFormat="false" ht="22.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="5"/>
@@ -809,10 +1380,10 @@
       <c r="F7" s="7"/>
       <c r="G7" s="6"/>
       <c r="H7" s="6"/>
-      <c r="I7" s="11"/>
-      <c r="J7" s="12"/>
+      <c r="I7" s="10"/>
+      <c r="J7" s="11"/>
       <c r="K7" s="3"/>
-      <c r="L7" s="10"/>
+      <c r="L7" s="2"/>
     </row>
     <row r="8" customFormat="false" ht="73.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A8" s="5"/>
@@ -823,10 +1394,10 @@
       <c r="F8" s="7"/>
       <c r="G8" s="6"/>
       <c r="H8" s="6"/>
-      <c r="I8" s="11"/>
-      <c r="J8" s="12"/>
+      <c r="I8" s="10"/>
+      <c r="J8" s="11"/>
       <c r="K8" s="3"/>
-      <c r="L8" s="10"/>
+      <c r="L8" s="2"/>
     </row>
     <row r="9" customFormat="false" ht="80" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A9" s="5"/>
@@ -837,10 +1408,10 @@
       <c r="F9" s="7"/>
       <c r="G9" s="6"/>
       <c r="H9" s="6"/>
-      <c r="I9" s="13"/>
-      <c r="J9" s="14"/>
+      <c r="I9" s="12"/>
+      <c r="J9" s="13"/>
       <c r="K9" s="2"/>
-      <c r="L9" s="10"/>
+      <c r="L9" s="2"/>
     </row>
     <row r="10" customFormat="false" ht="81.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A10" s="5"/>
@@ -848,13 +1419,13 @@
       <c r="C10" s="6"/>
       <c r="D10" s="6"/>
       <c r="E10" s="6"/>
-      <c r="F10" s="15"/>
+      <c r="F10" s="14"/>
       <c r="G10" s="6"/>
       <c r="H10" s="5"/>
       <c r="I10" s="9"/>
       <c r="J10" s="9"/>
       <c r="K10" s="2"/>
-      <c r="L10" s="10"/>
+      <c r="L10" s="2"/>
     </row>
     <row r="11" customFormat="false" ht="66.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A11" s="5"/>
@@ -865,10 +1436,10 @@
       <c r="F11" s="7"/>
       <c r="G11" s="6"/>
       <c r="H11" s="5"/>
-      <c r="I11" s="12"/>
-      <c r="J11" s="12"/>
+      <c r="I11" s="11"/>
+      <c r="J11" s="11"/>
       <c r="K11" s="2"/>
-      <c r="L11" s="10"/>
+      <c r="L11" s="2"/>
     </row>
     <row r="12" customFormat="false" ht="51.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A12" s="5"/>
@@ -876,11 +1447,11 @@
       <c r="C12" s="6"/>
       <c r="D12" s="6"/>
       <c r="E12" s="6"/>
-      <c r="F12" s="15"/>
+      <c r="F12" s="14"/>
       <c r="G12" s="6"/>
       <c r="H12" s="5"/>
-      <c r="I12" s="14"/>
-      <c r="J12" s="14"/>
+      <c r="I12" s="13"/>
+      <c r="J12" s="13"/>
       <c r="K12" s="3"/>
       <c r="L12" s="3"/>
     </row>
@@ -890,7 +1461,7 @@
       <c r="C13" s="6"/>
       <c r="D13" s="6"/>
       <c r="E13" s="6"/>
-      <c r="F13" s="15"/>
+      <c r="F13" s="14"/>
       <c r="G13" s="6"/>
       <c r="H13" s="5"/>
       <c r="I13" s="9"/>
@@ -904,11 +1475,11 @@
       <c r="C14" s="6"/>
       <c r="D14" s="6"/>
       <c r="E14" s="6"/>
-      <c r="F14" s="15"/>
+      <c r="F14" s="14"/>
       <c r="G14" s="6"/>
       <c r="H14" s="5"/>
-      <c r="I14" s="12"/>
-      <c r="J14" s="12"/>
+      <c r="I14" s="11"/>
+      <c r="J14" s="11"/>
       <c r="K14" s="3"/>
       <c r="L14" s="3"/>
     </row>
@@ -918,13 +1489,13 @@
       <c r="C15" s="6"/>
       <c r="D15" s="6"/>
       <c r="E15" s="6"/>
-      <c r="F15" s="15"/>
+      <c r="F15" s="14"/>
       <c r="G15" s="6"/>
       <c r="H15" s="5"/>
-      <c r="I15" s="14"/>
-      <c r="J15" s="14"/>
+      <c r="I15" s="13"/>
+      <c r="J15" s="13"/>
       <c r="K15" s="3"/>
-      <c r="L15" s="16"/>
+      <c r="L15" s="14"/>
     </row>
     <row r="16" customFormat="false" ht="69" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A16" s="5"/>
@@ -932,13 +1503,13 @@
       <c r="C16" s="6"/>
       <c r="D16" s="6"/>
       <c r="E16" s="6"/>
-      <c r="F16" s="15"/>
+      <c r="F16" s="14"/>
       <c r="G16" s="6"/>
       <c r="H16" s="5"/>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
       <c r="K16" s="3"/>
-      <c r="L16" s="16"/>
+      <c r="L16" s="14"/>
     </row>
     <row r="17" customFormat="false" ht="42" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A17" s="5"/>
@@ -946,13 +1517,13 @@
       <c r="C17" s="6"/>
       <c r="D17" s="6"/>
       <c r="E17" s="6"/>
-      <c r="F17" s="15"/>
+      <c r="F17" s="14"/>
       <c r="G17" s="6"/>
       <c r="H17" s="5"/>
-      <c r="I17" s="12"/>
-      <c r="J17" s="12"/>
+      <c r="I17" s="11"/>
+      <c r="J17" s="11"/>
       <c r="K17" s="3"/>
-      <c r="L17" s="16"/>
+      <c r="L17" s="14"/>
     </row>
     <row r="18" customFormat="false" ht="22.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="5"/>
@@ -960,13 +1531,13 @@
       <c r="C18" s="6"/>
       <c r="D18" s="6"/>
       <c r="E18" s="6"/>
-      <c r="F18" s="15"/>
+      <c r="F18" s="14"/>
       <c r="G18" s="6"/>
       <c r="H18" s="5"/>
-      <c r="I18" s="14"/>
-      <c r="J18" s="14"/>
+      <c r="I18" s="13"/>
+      <c r="J18" s="13"/>
       <c r="K18" s="3"/>
-      <c r="L18" s="16"/>
+      <c r="L18" s="14"/>
     </row>
     <row r="19" customFormat="false" ht="22.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="5"/>
@@ -974,13 +1545,13 @@
       <c r="C19" s="6"/>
       <c r="D19" s="6"/>
       <c r="E19" s="6"/>
-      <c r="F19" s="15"/>
+      <c r="F19" s="14"/>
       <c r="G19" s="6"/>
       <c r="H19" s="6"/>
       <c r="I19" s="8"/>
       <c r="J19" s="8"/>
       <c r="K19" s="3"/>
-      <c r="L19" s="16"/>
+      <c r="L19" s="14"/>
     </row>
     <row r="20" customFormat="false" ht="75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A20" s="5"/>
@@ -988,13 +1559,13 @@
       <c r="C20" s="6"/>
       <c r="D20" s="6"/>
       <c r="E20" s="6"/>
-      <c r="F20" s="15"/>
+      <c r="F20" s="14"/>
       <c r="G20" s="6"/>
       <c r="H20" s="6"/>
-      <c r="I20" s="13"/>
-      <c r="J20" s="13"/>
+      <c r="I20" s="12"/>
+      <c r="J20" s="12"/>
       <c r="K20" s="3"/>
-      <c r="L20" s="16"/>
+      <c r="L20" s="14"/>
     </row>
     <row r="21" customFormat="false" ht="75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A21" s="5"/>
@@ -1002,13 +1573,13 @@
       <c r="C21" s="6"/>
       <c r="D21" s="6"/>
       <c r="E21" s="6"/>
-      <c r="F21" s="15"/>
+      <c r="F21" s="14"/>
       <c r="G21" s="6"/>
       <c r="H21" s="6"/>
       <c r="I21" s="8"/>
       <c r="J21" s="8"/>
       <c r="K21" s="3"/>
-      <c r="L21" s="16"/>
+      <c r="L21" s="14"/>
     </row>
     <row r="22" customFormat="false" ht="48" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A22" s="5"/>
@@ -1016,13 +1587,13 @@
       <c r="C22" s="6"/>
       <c r="D22" s="6"/>
       <c r="E22" s="6"/>
-      <c r="F22" s="15"/>
+      <c r="F22" s="14"/>
       <c r="G22" s="6"/>
       <c r="H22" s="6"/>
-      <c r="I22" s="11"/>
-      <c r="J22" s="11"/>
+      <c r="I22" s="10"/>
+      <c r="J22" s="10"/>
       <c r="K22" s="3"/>
-      <c r="L22" s="16"/>
+      <c r="L22" s="14"/>
     </row>
     <row r="23" customFormat="false" ht="55.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A23" s="5"/>
@@ -1030,13 +1601,13 @@
       <c r="C23" s="6"/>
       <c r="D23" s="6"/>
       <c r="E23" s="6"/>
-      <c r="F23" s="15"/>
+      <c r="F23" s="14"/>
       <c r="G23" s="6"/>
       <c r="H23" s="6"/>
-      <c r="I23" s="11"/>
-      <c r="J23" s="11"/>
+      <c r="I23" s="10"/>
+      <c r="J23" s="10"/>
       <c r="K23" s="3"/>
-      <c r="L23" s="16"/>
+      <c r="L23" s="14"/>
     </row>
     <row r="24" customFormat="false" ht="61.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A24" s="5"/>
@@ -1044,13 +1615,13 @@
       <c r="C24" s="6"/>
       <c r="D24" s="6"/>
       <c r="E24" s="6"/>
-      <c r="F24" s="15"/>
+      <c r="F24" s="14"/>
       <c r="G24" s="6"/>
       <c r="H24" s="6"/>
-      <c r="I24" s="11"/>
-      <c r="J24" s="11"/>
+      <c r="I24" s="10"/>
+      <c r="J24" s="10"/>
       <c r="K24" s="3"/>
-      <c r="L24" s="16"/>
+      <c r="L24" s="14"/>
     </row>
     <row r="25" customFormat="false" ht="56.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A25" s="5"/>
@@ -1058,13 +1629,13 @@
       <c r="C25" s="6"/>
       <c r="D25" s="6"/>
       <c r="E25" s="6"/>
-      <c r="F25" s="15"/>
+      <c r="F25" s="14"/>
       <c r="G25" s="6"/>
       <c r="H25" s="6"/>
-      <c r="I25" s="11"/>
-      <c r="J25" s="11"/>
+      <c r="I25" s="10"/>
+      <c r="J25" s="10"/>
       <c r="K25" s="3"/>
-      <c r="L25" s="16"/>
+      <c r="L25" s="14"/>
     </row>
     <row r="26" customFormat="false" ht="99.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A26" s="5"/>
@@ -1072,13 +1643,13 @@
       <c r="C26" s="6"/>
       <c r="D26" s="6"/>
       <c r="E26" s="6"/>
-      <c r="F26" s="15"/>
+      <c r="F26" s="14"/>
       <c r="G26" s="6"/>
       <c r="H26" s="6"/>
-      <c r="I26" s="13"/>
-      <c r="J26" s="13"/>
-      <c r="K26" s="15"/>
-      <c r="L26" s="16"/>
+      <c r="I26" s="12"/>
+      <c r="J26" s="12"/>
+      <c r="K26" s="14"/>
+      <c r="L26" s="14"/>
     </row>
     <row r="27" customFormat="false" ht="68.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A27" s="5"/>
@@ -1086,13 +1657,13 @@
       <c r="C27" s="6"/>
       <c r="D27" s="6"/>
       <c r="E27" s="6"/>
-      <c r="F27" s="15"/>
+      <c r="F27" s="14"/>
       <c r="G27" s="6"/>
       <c r="H27" s="6"/>
       <c r="I27" s="8"/>
       <c r="J27" s="8"/>
-      <c r="K27" s="15"/>
-      <c r="L27" s="16"/>
+      <c r="K27" s="14"/>
+      <c r="L27" s="14"/>
     </row>
     <row r="28" customFormat="false" ht="27" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A28" s="5"/>
@@ -1100,13 +1671,13 @@
       <c r="C28" s="6"/>
       <c r="D28" s="6"/>
       <c r="E28" s="6"/>
-      <c r="F28" s="15"/>
+      <c r="F28" s="14"/>
       <c r="G28" s="6"/>
       <c r="H28" s="6"/>
-      <c r="I28" s="11"/>
-      <c r="J28" s="11"/>
-      <c r="K28" s="15"/>
-      <c r="L28" s="16"/>
+      <c r="I28" s="10"/>
+      <c r="J28" s="10"/>
+      <c r="K28" s="14"/>
+      <c r="L28" s="14"/>
     </row>
     <row r="29" customFormat="false" ht="48.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A29" s="5"/>
@@ -1114,13 +1685,13 @@
       <c r="C29" s="6"/>
       <c r="D29" s="6"/>
       <c r="E29" s="6"/>
-      <c r="F29" s="15"/>
+      <c r="F29" s="14"/>
       <c r="G29" s="6"/>
       <c r="H29" s="6"/>
-      <c r="I29" s="11"/>
-      <c r="J29" s="11"/>
-      <c r="K29" s="15"/>
-      <c r="L29" s="16"/>
+      <c r="I29" s="10"/>
+      <c r="J29" s="10"/>
+      <c r="K29" s="14"/>
+      <c r="L29" s="14"/>
     </row>
     <row r="30" customFormat="false" ht="29.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A30" s="5"/>
@@ -1128,13 +1699,13 @@
       <c r="C30" s="6"/>
       <c r="D30" s="6"/>
       <c r="E30" s="6"/>
-      <c r="F30" s="15"/>
+      <c r="F30" s="14"/>
       <c r="G30" s="6"/>
       <c r="H30" s="6"/>
-      <c r="I30" s="11"/>
-      <c r="J30" s="11"/>
-      <c r="K30" s="15"/>
-      <c r="L30" s="16"/>
+      <c r="I30" s="10"/>
+      <c r="J30" s="10"/>
+      <c r="K30" s="14"/>
+      <c r="L30" s="14"/>
     </row>
     <row r="31" customFormat="false" ht="37.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A31" s="5"/>
@@ -1142,13 +1713,13 @@
       <c r="C31" s="6"/>
       <c r="D31" s="6"/>
       <c r="E31" s="6"/>
-      <c r="F31" s="15"/>
+      <c r="F31" s="14"/>
       <c r="G31" s="6"/>
       <c r="H31" s="6"/>
-      <c r="I31" s="13"/>
-      <c r="J31" s="13"/>
-      <c r="K31" s="15"/>
-      <c r="L31" s="16"/>
+      <c r="I31" s="12"/>
+      <c r="J31" s="12"/>
+      <c r="K31" s="14"/>
+      <c r="L31" s="14"/>
     </row>
     <row r="32" customFormat="false" ht="37.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A32" s="5"/>
@@ -1156,13 +1727,13 @@
       <c r="C32" s="6"/>
       <c r="D32" s="6"/>
       <c r="E32" s="6"/>
-      <c r="F32" s="15"/>
+      <c r="F32" s="14"/>
       <c r="G32" s="6"/>
       <c r="H32" s="6"/>
       <c r="I32" s="8"/>
       <c r="J32" s="8"/>
-      <c r="K32" s="15"/>
-      <c r="L32" s="16"/>
+      <c r="K32" s="14"/>
+      <c r="L32" s="14"/>
     </row>
     <row r="33" customFormat="false" ht="37.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A33" s="5"/>
@@ -1170,13 +1741,13 @@
       <c r="C33" s="6"/>
       <c r="D33" s="6"/>
       <c r="E33" s="6"/>
-      <c r="F33" s="15"/>
+      <c r="F33" s="14"/>
       <c r="G33" s="6"/>
       <c r="H33" s="6"/>
-      <c r="I33" s="11"/>
-      <c r="J33" s="11"/>
-      <c r="K33" s="15"/>
-      <c r="L33" s="16"/>
+      <c r="I33" s="10"/>
+      <c r="J33" s="10"/>
+      <c r="K33" s="14"/>
+      <c r="L33" s="14"/>
     </row>
     <row r="34" customFormat="false" ht="69.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A34" s="5"/>
@@ -1184,13 +1755,13 @@
       <c r="C34" s="6"/>
       <c r="D34" s="6"/>
       <c r="E34" s="6"/>
-      <c r="F34" s="15"/>
+      <c r="F34" s="14"/>
       <c r="G34" s="6"/>
       <c r="H34" s="6"/>
-      <c r="I34" s="11"/>
-      <c r="J34" s="11"/>
-      <c r="K34" s="15"/>
-      <c r="L34" s="16"/>
+      <c r="I34" s="10"/>
+      <c r="J34" s="10"/>
+      <c r="K34" s="14"/>
+      <c r="L34" s="14"/>
     </row>
     <row r="35" customFormat="false" ht="37.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A35" s="5"/>
@@ -1198,13 +1769,13 @@
       <c r="C35" s="6"/>
       <c r="D35" s="6"/>
       <c r="E35" s="6"/>
-      <c r="F35" s="15"/>
+      <c r="F35" s="14"/>
       <c r="G35" s="6"/>
       <c r="H35" s="6"/>
-      <c r="I35" s="11"/>
-      <c r="J35" s="11"/>
-      <c r="K35" s="15"/>
-      <c r="L35" s="16"/>
+      <c r="I35" s="10"/>
+      <c r="J35" s="10"/>
+      <c r="K35" s="14"/>
+      <c r="L35" s="14"/>
     </row>
     <row r="36" customFormat="false" ht="51" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A36" s="5"/>
@@ -1212,13 +1783,13 @@
       <c r="C36" s="6"/>
       <c r="D36" s="6"/>
       <c r="E36" s="6"/>
-      <c r="F36" s="15"/>
+      <c r="F36" s="14"/>
       <c r="G36" s="6"/>
       <c r="H36" s="6"/>
-      <c r="I36" s="11"/>
-      <c r="J36" s="11"/>
-      <c r="K36" s="15"/>
-      <c r="L36" s="16"/>
+      <c r="I36" s="10"/>
+      <c r="J36" s="10"/>
+      <c r="K36" s="14"/>
+      <c r="L36" s="14"/>
     </row>
     <row r="37" customFormat="false" ht="36.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A37" s="5"/>
@@ -1226,13 +1797,13 @@
       <c r="C37" s="6"/>
       <c r="D37" s="6"/>
       <c r="E37" s="6"/>
-      <c r="F37" s="15"/>
+      <c r="F37" s="14"/>
       <c r="G37" s="6"/>
       <c r="H37" s="6"/>
-      <c r="I37" s="11"/>
-      <c r="J37" s="11"/>
-      <c r="K37" s="15"/>
-      <c r="L37" s="16"/>
+      <c r="I37" s="10"/>
+      <c r="J37" s="10"/>
+      <c r="K37" s="14"/>
+      <c r="L37" s="14"/>
     </row>
     <row r="38" customFormat="false" ht="207.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A38" s="5"/>
@@ -1240,13 +1811,13 @@
       <c r="C38" s="6"/>
       <c r="D38" s="6"/>
       <c r="E38" s="6"/>
-      <c r="F38" s="17"/>
+      <c r="F38" s="15"/>
       <c r="G38" s="6"/>
       <c r="H38" s="6"/>
-      <c r="I38" s="13"/>
-      <c r="J38" s="13"/>
-      <c r="K38" s="15"/>
-      <c r="L38" s="16"/>
+      <c r="I38" s="12"/>
+      <c r="J38" s="12"/>
+      <c r="K38" s="14"/>
+      <c r="L38" s="14"/>
     </row>
     <row r="39" customFormat="false" ht="28.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A39" s="5"/>
@@ -1254,12 +1825,12 @@
       <c r="C39" s="6"/>
       <c r="D39" s="6"/>
       <c r="E39" s="6"/>
-      <c r="F39" s="17"/>
+      <c r="F39" s="15"/>
       <c r="G39" s="6"/>
       <c r="H39" s="6"/>
       <c r="I39" s="8"/>
       <c r="J39" s="8"/>
-      <c r="L39" s="16"/>
+      <c r="L39" s="14"/>
     </row>
     <row r="40" customFormat="false" ht="54.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A40" s="5"/>
@@ -1267,13 +1838,13 @@
       <c r="C40" s="6"/>
       <c r="D40" s="6"/>
       <c r="E40" s="6"/>
-      <c r="F40" s="17"/>
+      <c r="F40" s="15"/>
       <c r="G40" s="6"/>
       <c r="H40" s="6"/>
-      <c r="I40" s="11"/>
-      <c r="J40" s="11"/>
-      <c r="K40" s="15"/>
-      <c r="L40" s="16"/>
+      <c r="I40" s="10"/>
+      <c r="J40" s="10"/>
+      <c r="K40" s="14"/>
+      <c r="L40" s="14"/>
     </row>
     <row r="41" customFormat="false" ht="36.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A41" s="5"/>
@@ -1281,13 +1852,13 @@
       <c r="C41" s="6"/>
       <c r="D41" s="6"/>
       <c r="E41" s="6"/>
-      <c r="F41" s="17"/>
+      <c r="F41" s="15"/>
       <c r="G41" s="6"/>
       <c r="H41" s="6"/>
-      <c r="I41" s="11"/>
-      <c r="J41" s="11"/>
-      <c r="K41" s="15"/>
-      <c r="L41" s="16"/>
+      <c r="I41" s="10"/>
+      <c r="J41" s="10"/>
+      <c r="K41" s="14"/>
+      <c r="L41" s="14"/>
     </row>
     <row r="42" customFormat="false" ht="46.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A42" s="5"/>
@@ -1295,13 +1866,13 @@
       <c r="C42" s="6"/>
       <c r="D42" s="6"/>
       <c r="E42" s="6"/>
-      <c r="F42" s="17"/>
+      <c r="F42" s="15"/>
       <c r="G42" s="6"/>
       <c r="H42" s="6"/>
-      <c r="I42" s="11"/>
-      <c r="J42" s="11"/>
-      <c r="K42" s="15"/>
-      <c r="L42" s="16"/>
+      <c r="I42" s="10"/>
+      <c r="J42" s="10"/>
+      <c r="K42" s="14"/>
+      <c r="L42" s="14"/>
     </row>
     <row r="43" customFormat="false" ht="31.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A43" s="5"/>
@@ -1309,13 +1880,13 @@
       <c r="C43" s="6"/>
       <c r="D43" s="6"/>
       <c r="E43" s="6"/>
-      <c r="F43" s="15"/>
+      <c r="F43" s="14"/>
       <c r="G43" s="6"/>
       <c r="H43" s="6"/>
-      <c r="I43" s="13"/>
-      <c r="J43" s="13"/>
-      <c r="K43" s="15"/>
-      <c r="L43" s="16"/>
+      <c r="I43" s="12"/>
+      <c r="J43" s="12"/>
+      <c r="K43" s="14"/>
+      <c r="L43" s="14"/>
     </row>
     <row r="44" customFormat="false" ht="31.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A44" s="9"/>
@@ -1323,13 +1894,13 @@
       <c r="C44" s="8"/>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
-      <c r="F44" s="18"/>
+      <c r="F44" s="16"/>
       <c r="G44" s="8"/>
       <c r="H44" s="6"/>
       <c r="I44" s="8"/>
       <c r="J44" s="8"/>
-      <c r="K44" s="18"/>
-      <c r="L44" s="19"/>
+      <c r="K44" s="16"/>
+      <c r="L44" s="16"/>
     </row>
     <row r="45" customFormat="false" ht="31.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A45" s="9"/>
@@ -1337,13 +1908,13 @@
       <c r="C45" s="8"/>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
-      <c r="F45" s="20"/>
+      <c r="F45" s="17"/>
       <c r="G45" s="8"/>
       <c r="H45" s="8"/>
-      <c r="I45" s="11"/>
-      <c r="J45" s="11"/>
-      <c r="K45" s="18"/>
-      <c r="L45" s="19"/>
+      <c r="I45" s="10"/>
+      <c r="J45" s="10"/>
+      <c r="K45" s="16"/>
+      <c r="L45" s="16"/>
     </row>
     <row r="46" customFormat="false" ht="31.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A46" s="9"/>
@@ -1351,13 +1922,13 @@
       <c r="C46" s="8"/>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
-      <c r="F46" s="21"/>
+      <c r="F46" s="18"/>
       <c r="G46" s="8"/>
       <c r="H46" s="8"/>
-      <c r="I46" s="11"/>
-      <c r="J46" s="11"/>
-      <c r="K46" s="18"/>
-      <c r="L46" s="19"/>
+      <c r="I46" s="10"/>
+      <c r="J46" s="10"/>
+      <c r="K46" s="16"/>
+      <c r="L46" s="16"/>
     </row>
     <row r="47" customFormat="false" ht="31.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A47" s="9"/>
@@ -1365,13 +1936,13 @@
       <c r="C47" s="8"/>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
-      <c r="F47" s="21"/>
+      <c r="F47" s="18"/>
       <c r="G47" s="8"/>
       <c r="H47" s="8"/>
-      <c r="I47" s="11"/>
-      <c r="J47" s="11"/>
-      <c r="K47" s="18"/>
-      <c r="L47" s="19"/>
+      <c r="I47" s="10"/>
+      <c r="J47" s="10"/>
+      <c r="K47" s="16"/>
+      <c r="L47" s="16"/>
     </row>
     <row r="48" customFormat="false" ht="87.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A48" s="9"/>
@@ -1379,13 +1950,13 @@
       <c r="C48" s="8"/>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
-      <c r="F48" s="18"/>
+      <c r="F48" s="16"/>
       <c r="G48" s="8"/>
       <c r="H48" s="6"/>
-      <c r="I48" s="11"/>
-      <c r="J48" s="11"/>
-      <c r="K48" s="18"/>
-      <c r="L48" s="19"/>
+      <c r="I48" s="10"/>
+      <c r="J48" s="10"/>
+      <c r="K48" s="16"/>
+      <c r="L48" s="16"/>
     </row>
     <row r="49" customFormat="false" ht="82.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A49" s="6"/>
@@ -1393,13 +1964,13 @@
       <c r="C49" s="6"/>
       <c r="D49" s="6"/>
       <c r="E49" s="6"/>
-      <c r="F49" s="15"/>
+      <c r="F49" s="14"/>
       <c r="G49" s="6"/>
       <c r="H49" s="6"/>
       <c r="I49" s="6"/>
       <c r="J49" s="6"/>
-      <c r="K49" s="15"/>
-      <c r="L49" s="16"/>
+      <c r="K49" s="14"/>
+      <c r="L49" s="14"/>
     </row>
     <row r="50" customFormat="false" ht="51" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A50" s="6"/>
@@ -1407,13 +1978,13 @@
       <c r="C50" s="6"/>
       <c r="D50" s="6"/>
       <c r="E50" s="6"/>
-      <c r="F50" s="15"/>
+      <c r="F50" s="14"/>
       <c r="G50" s="6"/>
       <c r="H50" s="6"/>
       <c r="I50" s="6"/>
       <c r="J50" s="6"/>
-      <c r="K50" s="15"/>
-      <c r="L50" s="16"/>
+      <c r="K50" s="14"/>
+      <c r="L50" s="14"/>
     </row>
     <row r="51" customFormat="false" ht="31.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A51" s="6"/>
@@ -1421,13 +1992,13 @@
       <c r="C51" s="6"/>
       <c r="D51" s="6"/>
       <c r="E51" s="6"/>
-      <c r="F51" s="15"/>
+      <c r="F51" s="14"/>
       <c r="G51" s="6"/>
       <c r="H51" s="6"/>
       <c r="I51" s="6"/>
       <c r="J51" s="6"/>
-      <c r="K51" s="15"/>
-      <c r="L51" s="16"/>
+      <c r="K51" s="14"/>
+      <c r="L51" s="14"/>
     </row>
     <row r="52" customFormat="false" ht="98.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A52" s="6"/>
@@ -1435,13 +2006,13 @@
       <c r="C52" s="6"/>
       <c r="D52" s="6"/>
       <c r="E52" s="6"/>
-      <c r="F52" s="15"/>
+      <c r="F52" s="14"/>
       <c r="G52" s="6"/>
       <c r="H52" s="6"/>
       <c r="I52" s="6"/>
       <c r="J52" s="6"/>
-      <c r="K52" s="15"/>
-      <c r="L52" s="16"/>
+      <c r="K52" s="14"/>
+      <c r="L52" s="14"/>
     </row>
     <row r="53" customFormat="false" ht="31.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A53" s="6"/>
@@ -1449,13 +2020,13 @@
       <c r="C53" s="6"/>
       <c r="D53" s="6"/>
       <c r="E53" s="6"/>
-      <c r="F53" s="15"/>
+      <c r="F53" s="14"/>
       <c r="G53" s="6"/>
       <c r="H53" s="6"/>
       <c r="I53" s="6"/>
       <c r="J53" s="6"/>
-      <c r="K53" s="15"/>
-      <c r="L53" s="16"/>
+      <c r="K53" s="14"/>
+      <c r="L53" s="14"/>
     </row>
     <row r="54" customFormat="false" ht="39" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A54" s="6"/>
@@ -1550,8 +2121,8 @@
       <c r="F60" s="7"/>
       <c r="G60" s="6"/>
       <c r="H60" s="6"/>
-      <c r="I60" s="11"/>
-      <c r="J60" s="11"/>
+      <c r="I60" s="10"/>
+      <c r="J60" s="10"/>
       <c r="K60" s="6"/>
       <c r="L60" s="6"/>
     </row>
@@ -1564,8 +2135,8 @@
       <c r="F61" s="7"/>
       <c r="G61" s="6"/>
       <c r="H61" s="6"/>
-      <c r="I61" s="11"/>
-      <c r="J61" s="11"/>
+      <c r="I61" s="10"/>
+      <c r="J61" s="10"/>
       <c r="K61" s="6"/>
       <c r="L61" s="6"/>
     </row>
@@ -1578,8 +2149,8 @@
       <c r="F62" s="7"/>
       <c r="G62" s="6"/>
       <c r="H62" s="6"/>
-      <c r="I62" s="13"/>
-      <c r="J62" s="13"/>
+      <c r="I62" s="12"/>
+      <c r="J62" s="12"/>
       <c r="K62" s="6"/>
       <c r="L62" s="6"/>
     </row>
@@ -1683,194 +2254,194 @@
   </sheetPr>
   <dimension ref="A2:S1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B2" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="U8" activeCellId="0" sqref="U8"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="C2" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="J16" activeCellId="0" sqref="J16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14453125" defaultRowHeight="17.35" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1" min="1" style="22" width="9.14"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="22" width="17.74"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="6" min="3" style="22" width="9.14"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="22" width="17.74"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="14" min="8" style="22" width="9.14"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="22" width="17.09"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="17" min="16" style="22" width="9.14"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="18" min="18" style="22" width="16.87"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1024" min="19" style="22" width="9.14"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1" min="1" style="19" width="9.14"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="19" width="17.74"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="6" min="3" style="19" width="9.14"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="19" width="17.74"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="14" min="8" style="19" width="9.14"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="19" width="17.09"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="17" min="16" style="19" width="9.14"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="18" min="18" style="19" width="16.87"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1024" min="19" style="19" width="9.14"/>
   </cols>
   <sheetData>
     <row r="2" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="23"/>
-      <c r="B2" s="23"/>
-      <c r="C2" s="23"/>
-      <c r="D2" s="23"/>
-      <c r="E2" s="23"/>
-      <c r="F2" s="23"/>
-      <c r="G2" s="23"/>
-      <c r="H2" s="23"/>
-      <c r="I2" s="23"/>
-      <c r="J2" s="23"/>
-      <c r="K2" s="23"/>
-      <c r="L2" s="23"/>
-      <c r="M2" s="23"/>
-      <c r="N2" s="23"/>
-      <c r="O2" s="23"/>
-      <c r="P2" s="23"/>
-      <c r="Q2" s="23"/>
-      <c r="R2" s="23"/>
-      <c r="S2" s="23"/>
+      <c r="A2" s="20"/>
+      <c r="B2" s="20"/>
+      <c r="C2" s="20"/>
+      <c r="D2" s="20"/>
+      <c r="E2" s="20"/>
+      <c r="F2" s="20"/>
+      <c r="G2" s="20"/>
+      <c r="H2" s="20"/>
+      <c r="I2" s="20"/>
+      <c r="J2" s="20"/>
+      <c r="K2" s="20"/>
+      <c r="L2" s="20"/>
+      <c r="M2" s="20"/>
+      <c r="N2" s="20"/>
+      <c r="O2" s="20"/>
+      <c r="P2" s="20"/>
+      <c r="Q2" s="20"/>
+      <c r="R2" s="20"/>
+      <c r="S2" s="20"/>
     </row>
     <row r="3" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="23"/>
-      <c r="B3" s="22" t="s">
+      <c r="A3" s="20"/>
+      <c r="B3" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="24" t="s">
+      <c r="C3" s="21" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="24" t="s">
+      <c r="D3" s="21" t="s">
         <v>2</v>
       </c>
-      <c r="E3" s="24" t="s">
+      <c r="E3" s="21" t="s">
         <v>3</v>
       </c>
-      <c r="F3" s="24" t="s">
+      <c r="F3" s="21" t="s">
         <v>4</v>
       </c>
-      <c r="G3" s="24" t="s">
+      <c r="G3" s="21" t="s">
         <v>5</v>
       </c>
-      <c r="H3" s="24" t="s">
+      <c r="H3" s="21" t="s">
         <v>6</v>
       </c>
-      <c r="I3" s="24" t="s">
+      <c r="I3" s="21" t="s">
         <v>7</v>
       </c>
-      <c r="J3" s="24" t="s">
+      <c r="J3" s="21" t="s">
         <v>8</v>
       </c>
-      <c r="K3" s="24" t="s">
+      <c r="K3" s="21" t="s">
         <v>9</v>
       </c>
-      <c r="L3" s="24" t="s">
+      <c r="L3" s="21" t="s">
         <v>10</v>
       </c>
-      <c r="M3" s="24" t="s">
+      <c r="M3" s="21" t="s">
         <v>11</v>
       </c>
-      <c r="N3" s="24" t="s">
+      <c r="N3" s="21" t="s">
         <v>12</v>
       </c>
-      <c r="O3" s="24" t="s">
+      <c r="O3" s="21" t="s">
         <v>13</v>
       </c>
-      <c r="P3" s="24" t="s">
+      <c r="P3" s="21" t="s">
         <v>14</v>
       </c>
-      <c r="Q3" s="24" t="s">
+      <c r="Q3" s="21" t="s">
         <v>15</v>
       </c>
-      <c r="R3" s="24" t="s">
+      <c r="R3" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="S3" s="24" t="s">
+      <c r="S3" s="21" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="17.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B4" s="22" t="s">
+      <c r="B4" s="19" t="s">
         <v>17</v>
       </c>
-      <c r="C4" s="22" t="n">
+      <c r="C4" s="19" t="n">
         <v>0.998</v>
       </c>
-      <c r="D4" s="22" t="n">
+      <c r="D4" s="19" t="n">
         <v>0.994</v>
       </c>
-      <c r="E4" s="22" t="n">
+      <c r="E4" s="19" t="n">
         <v>0.997</v>
       </c>
-      <c r="F4" s="22" t="n">
+      <c r="F4" s="19" t="n">
         <v>0.997</v>
       </c>
-      <c r="G4" s="24" t="s">
+      <c r="G4" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="H4" s="22" t="n">
+      <c r="H4" s="19" t="n">
         <v>0.985</v>
       </c>
-      <c r="I4" s="22" t="n">
+      <c r="I4" s="19" t="n">
         <v>0.97</v>
       </c>
-      <c r="J4" s="22" t="n">
+      <c r="J4" s="19" t="n">
         <v>0.999</v>
       </c>
-      <c r="K4" s="22" t="n">
+      <c r="K4" s="19" t="n">
         <v>0.992</v>
       </c>
-      <c r="L4" s="22" t="n">
+      <c r="L4" s="19" t="n">
         <v>0.995</v>
       </c>
-      <c r="M4" s="22" t="n">
+      <c r="M4" s="19" t="n">
         <v>0.998</v>
       </c>
-      <c r="N4" s="22" t="n">
+      <c r="N4" s="19" t="n">
         <v>0.95</v>
       </c>
-      <c r="O4" s="25" t="s">
+      <c r="O4" s="22" t="s">
         <v>19</v>
       </c>
-      <c r="P4" s="22" t="n">
+      <c r="P4" s="19" t="n">
         <v>0.987</v>
       </c>
-      <c r="Q4" s="22" t="n">
+      <c r="Q4" s="19" t="n">
         <v>0.964</v>
       </c>
-      <c r="R4" s="25" t="s">
+      <c r="R4" s="22" t="s">
         <v>20</v>
       </c>
-      <c r="S4" s="22" t="n">
+      <c r="S4" s="19" t="n">
         <v>0.954</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="17.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="G5" s="24" t="s">
+      <c r="G5" s="21" t="s">
         <v>21</v>
       </c>
-      <c r="O5" s="25" t="s">
+      <c r="O5" s="22" t="s">
         <v>22</v>
       </c>
-      <c r="R5" s="25" t="s">
+      <c r="R5" s="22" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="17.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="G6" s="24" t="s">
+      <c r="G6" s="21" t="s">
         <v>24</v>
       </c>
-      <c r="O6" s="25" t="s">
+      <c r="O6" s="22" t="s">
         <v>25</v>
       </c>
-      <c r="R6" s="25" t="s">
+      <c r="R6" s="22" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="17.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="G7" s="24" t="s">
+      <c r="G7" s="21" t="s">
         <v>27</v>
       </c>
-      <c r="O7" s="25" t="s">
+      <c r="O7" s="22" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="G8" s="24" t="s">
+      <c r="G8" s="21" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="L23" s="26" t="n">
+      <c r="L23" s="23" t="n">
         <v>298</v>
       </c>
     </row>
@@ -1891,56 +2462,132 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="C15:E19"/>
+  <dimension ref="C7:G23"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="I18" activeCellId="0" sqref="I18"/>
+      <selection pane="topLeft" activeCell="G7" activeCellId="0" sqref="G7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.14453125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.15234375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="29.54"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="29.53"/>
   </cols>
   <sheetData>
-    <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D16" s="23" t="s">
+    <row r="7" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G7" s="24" t="s">
         <v>30</v>
       </c>
-      <c r="E16" s="23" t="s">
+    </row>
+    <row r="8" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G8" s="24" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="9" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G9" s="24" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G10" s="24" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="176.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G11" s="24" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G12" s="24" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G13" s="24" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G14" s="24" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G15" s="24" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D16" s="20" t="s">
+        <v>39</v>
+      </c>
+      <c r="E16" s="20" t="s">
+        <v>40</v>
+      </c>
+      <c r="G16" s="24" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C17" s="0" t="s">
-        <v>32</v>
-      </c>
-      <c r="D17" s="27" t="n">
+        <v>42</v>
+      </c>
+      <c r="D17" s="25" t="n">
         <v>0.00057220458984375</v>
       </c>
-      <c r="E17" s="23" t="n">
+      <c r="E17" s="20" t="n">
         <v>0.079</v>
       </c>
-    </row>
-    <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G17" s="24" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C18" s="0" t="s">
-        <v>33</v>
-      </c>
-      <c r="D18" s="23" t="n">
+        <v>44</v>
+      </c>
+      <c r="D18" s="20" t="n">
         <v>0.013</v>
       </c>
-      <c r="E18" s="23" t="n">
+      <c r="E18" s="20" t="n">
         <v>0.149</v>
       </c>
-    </row>
-    <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C19" s="28" t="s">
-        <v>34</v>
-      </c>
-      <c r="D19" s="29" t="s">
-        <v>35</v>
-      </c>
-      <c r="E19" s="29"/>
+      <c r="G18" s="24" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="122.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C19" s="26" t="s">
+        <v>46</v>
+      </c>
+      <c r="D19" s="27" t="s">
+        <v>47</v>
+      </c>
+      <c r="E19" s="27"/>
+      <c r="G19" s="24" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G20" s="24" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G21" s="24" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="95.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G22" s="24" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G23" s="24" t="s">
+        <v>52</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="1">
